--- a/src/com/qtpselenium/xls/A suite.xlsx
+++ b/src/com/qtpselenium/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/src/com/qtpselenium/xls/A suite.xlsx
+++ b/src/com/qtpselenium/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -692,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>

--- a/src/com/qtpselenium/xls/A suite.xlsx
+++ b/src/com/qtpselenium/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -30,121 +30,128 @@
     <t>Y</t>
   </si>
   <si>
+    <t>DataA1_1</t>
+  </si>
+  <si>
+    <t>DataA1_2</t>
+  </si>
+  <si>
+    <t>DataA1_3</t>
+  </si>
+  <si>
+    <t>DataA1_4</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>DataA2_1</t>
+  </si>
+  <si>
+    <t>DataA2_2</t>
+  </si>
+  <si>
+    <t>DataA2_3</t>
+  </si>
+  <si>
+    <t>Dummy Data_A2_1</t>
+  </si>
+  <si>
+    <t>Dummy Data_A2_2</t>
+  </si>
+  <si>
+    <t>Dummy Data_A2_3</t>
+  </si>
+  <si>
+    <t>Dummy Data_A2_4</t>
+  </si>
+  <si>
+    <t>Dummy Data_A2_5</t>
+  </si>
+  <si>
+    <t>Dummy Data_A2_6</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_1</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_2</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_3</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_4</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_5</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_6</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_7</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_8</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_9</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_10</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_11</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_12</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_13</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_14</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_15</t>
+  </si>
+  <si>
+    <t>Dummy Data_A1_16</t>
+  </si>
+  <si>
+    <t>Login into application</t>
+  </si>
+  <si>
+    <t>Search for a keyword</t>
+  </si>
+  <si>
+    <t>TestCase_A1</t>
+  </si>
+  <si>
+    <t>TestCase_A2</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>DataA1_1</t>
-  </si>
-  <si>
-    <t>DataA1_2</t>
-  </si>
-  <si>
-    <t>DataA1_3</t>
-  </si>
-  <si>
-    <t>DataA1_4</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>DataA2_1</t>
-  </si>
-  <si>
-    <t>DataA2_2</t>
-  </si>
-  <si>
-    <t>DataA2_3</t>
-  </si>
-  <si>
-    <t>Dummy Data_A2_1</t>
-  </si>
-  <si>
-    <t>Dummy Data_A2_2</t>
-  </si>
-  <si>
-    <t>Dummy Data_A2_3</t>
-  </si>
-  <si>
-    <t>Dummy Data_A2_4</t>
-  </si>
-  <si>
-    <t>Dummy Data_A2_5</t>
-  </si>
-  <si>
-    <t>Dummy Data_A2_6</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_1</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_2</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_3</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_4</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_5</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_6</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_7</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_8</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_9</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_10</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_11</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_12</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_13</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_14</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_15</t>
-  </si>
-  <si>
-    <t>Dummy Data_A1_16</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Login into application</t>
-  </si>
-  <si>
-    <t>Search for a keyword</t>
-  </si>
-  <si>
-    <t>TestCase_A1</t>
-  </si>
-  <si>
-    <t>TestCase_A2</t>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,15 +517,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -532,29 +539,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -570,117 +577,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
   </sheetData>
@@ -692,46 +707,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -741,16 +756,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>

--- a/src/com/qtpselenium/xls/A suite.xlsx
+++ b/src/com/qtpselenium/xls/A suite.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17880" windowHeight="2730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase_A1" sheetId="2" r:id="rId2"/>
     <sheet name="TestCase_A2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M7"/>
 </workbook>
 </file>
 
@@ -30,6 +31,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>DataA1_1</t>
   </si>
   <si>
@@ -135,16 +139,13 @@
     <t>TestCase_A2</t>
   </si>
   <si>
-    <t>N</t>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -517,7 +518,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,15 +540,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -558,10 +559,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -578,7 +579,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,39 +594,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -637,19 +638,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>41</v>
@@ -658,19 +659,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>41</v>
@@ -679,16 +680,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -708,7 +709,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,33 +721,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -756,16 +757,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
